--- a/Document/TestPlan.xlsx
+++ b/Document/TestPlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="7300" yWindow="460" windowWidth="18300" windowHeight="14680" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>Test</t>
   </si>
@@ -42,13 +42,153 @@
     <t>Expected Results</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Actual results</t>
-  </si>
-  <si>
-    <t>Action taken</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Test-case</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Run log</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>Redirect to default page after login success.
+- Admin
+- CL
+- CM
+- DLT
+- PVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter valid credential into textbox </t>
+  </si>
+  <si>
+    <t>Admin: admin/admin
+CL:
+CM:
+DLT:
+PVC</t>
+  </si>
+  <si>
+    <t>Default page is displayed for each privellges</t>
+  </si>
+  <si>
+    <t>Login failed</t>
+  </si>
+  <si>
+    <t>Enter invalid credintial into textbox</t>
+  </si>
+  <si>
+    <t>Anything</t>
+  </si>
+  <si>
+    <t>Message is shown to prompt re-check entered info</t>
+  </si>
+  <si>
+    <t>Attempt to authorized page</t>
+  </si>
+  <si>
+    <t>Enter valid url for profile detail page into browser</t>
+  </si>
+  <si>
+    <t>Redirect to login page</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>View list CMR belong to CL
+- CL</t>
+  </si>
+  <si>
+    <t>1) Login with CL account
+2) Go to manage CMRs page</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>All CMRs belong to this CMR are displayed</t>
+  </si>
+  <si>
+    <t>View details CMR belong to CL
+- CL</t>
+  </si>
+  <si>
+    <t>1) Login with CL account
+2) Go to manage CMRs page
+3) Select a CMR</t>
+  </si>
+  <si>
+    <t>Detail page is display along with correct data</t>
+  </si>
+  <si>
+    <t>Verify visibility of SEND button
+- CL</t>
+  </si>
+  <si>
+    <t>1) SEND is disabled if selected CMR whose status = Pending or Rejected
+2) SEND is disabled for others</t>
+  </si>
+  <si>
+    <t>Verify editing CMR would affect
+- CL</t>
+  </si>
+  <si>
+    <t>1) Login with CL account
+2) Go to manage CMRs page
+3) Select a CMR
+4) Change information as [DATA]
+5) Verify CMR detail after done</t>
+  </si>
+  <si>
+    <t>New data has been updated</t>
+  </si>
+  <si>
+    <t>Verify adding CMR ability</t>
+  </si>
+  <si>
+    <t>1) Login with CL account
+2) Go to manage CMRs page
+3) Select annual course which don't has CMR yet
+4) Fillout CMR as [DATA]
+5) Click Add button</t>
+  </si>
+  <si>
+    <t>1) Add button is disappeared for that annual course
+2) Go to CMR management to see status of created CMR is pending</t>
+  </si>
+  <si>
+    <t>Verify validation when create CMR</t>
+  </si>
+  <si>
+    <t>Error label is displayed and also prevent action add</t>
+  </si>
+  <si>
+    <t>Verify ACR term is changed to CMR</t>
+  </si>
+  <si>
+    <t>Go to below pages to check:
+List CMR
+CMR details
+Create CMR form</t>
+  </si>
+  <si>
+    <t>ARC term is no longer existed</t>
   </si>
 </sst>
 </file>
@@ -141,10 +281,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -437,19 +579,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -465,48 +607,225 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="19.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
